--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F646ED0A-0604-4D85-9B6E-5F5D6697E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2E70DE-DE2C-4323-BC99-CE799B7CC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
+    <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>
   <sheets>
     <sheet name="TAB.SINGOLI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>FASCIA</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>N.TABELLONE</t>
   </si>
   <si>
     <t>2018-2017</t>
@@ -241,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -739,11 +742,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -897,6 +909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -918,6 +933,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,23 +960,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,84 +1325,88 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="6" width="24.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="58">
+      <c r="E1" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="75"/>
+      <c r="K1" s="59">
         <v>1</v>
       </c>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="16"/>
       <c r="C2" s="18"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="67">
+      <c r="C3" s="65">
         <v>3</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="68"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="17"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="69" t="s">
+    <row r="6" spans="1:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
@@ -1413,24 +1438,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
@@ -1442,27 +1467,27 @@
         <v>2017</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="38"/>
@@ -1474,27 +1499,27 @@
         <v>2018</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="34"/>
@@ -1506,27 +1531,27 @@
         <v>2018</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="38"/>
@@ -1538,16 +1563,17 @@
         <v>2018</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="K1:L3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G6:K6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -1574,15 +1600,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -1624,7 +1650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1657,12 +1683,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="25" t="s">
         <v>26</v>
       </c>

--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2E70DE-DE2C-4323-BC99-CE799B7CC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF311BBA-5C8F-4C8A-85E3-B7DFC217D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>

--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/01) FASCIA 2018-2017 - PANDA - Prova n.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF311BBA-5C8F-4C8A-85E3-B7DFC217D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21750079-791C-4BD7-BA81-D9F93C63CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>
@@ -148,6 +148,36 @@
     <t>-</t>
   </si>
   <si>
+    <t>SCUOLA KARATE GALLIERA VENETA</t>
+  </si>
+  <si>
+    <t>HUZUM</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>TAIKYOKU SHODAN</t>
+  </si>
+  <si>
+    <t>BIANCA</t>
+  </si>
+  <si>
+    <t>SHINGHITAI KARATE-DO</t>
+  </si>
+  <si>
+    <t>DELLE CASE</t>
+  </si>
+  <si>
+    <t>SAMUELE</t>
+  </si>
+  <si>
+    <t>TONIOLO</t>
+  </si>
+  <si>
+    <t>VITTORIO</t>
+  </si>
+  <si>
     <t>KARATE TREVIGNANO E MONTEBELLUNA</t>
   </si>
   <si>
@@ -155,36 +185,6 @@
   </si>
   <si>
     <t>SIMONE</t>
-  </si>
-  <si>
-    <t>TAIKYOKU SHODAN</t>
-  </si>
-  <si>
-    <t>BIANCA</t>
-  </si>
-  <si>
-    <t>SCUOLA KARATE GALLIERA VENETA</t>
-  </si>
-  <si>
-    <t>TONIOLO</t>
-  </si>
-  <si>
-    <t>VITTORIO</t>
-  </si>
-  <si>
-    <t>HUZUM</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>SHINGHITAI KARATE-DO</t>
-  </si>
-  <si>
-    <t>DELLE CASE</t>
-  </si>
-  <si>
-    <t>SAMUELE</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1464,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>39</v>
@@ -1510,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>43</v>
@@ -1560,7 +1560,7 @@
       <c r="K11" s="39"/>
       <c r="L11" s="41"/>
       <c r="M11" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>39</v>
